--- a/flash_calculate.xlsx
+++ b/flash_calculate.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>HEX</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -60,6 +60,50 @@
   </si>
   <si>
     <t>APROM remain size (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total boot loader size (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>total data flash size (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for ICP tool , data flash config setting*/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for generateChecksum , generateCRCbinary.cmd*/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* \AP\KEIL\obj\APROM_application.bin file size*/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for ICP tool , APROM address , to programming extra boot loader */</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for \ISP_HID_20\KEIL\hid_20_iap.sct*/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LDROM in APROM length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for verify_application_chksum in \ISP_HID_20\main.c */</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* for APROM_APPLICATION_SIZE in \ISP_HID_20\isp_user.h*/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/* generateChecksum , generateCRCbinary.cmd*/</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -145,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -159,6 +203,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -462,29 +512,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="39.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="27.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="1"/>
     <col min="7" max="7" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -496,7 +547,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -508,7 +559,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -516,65 +567,131 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B6" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="D6" s="2">
+        <f xml:space="preserve"> B2 - B7 - B6</f>
+        <v>500</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B7" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6"/>
+      <c r="D8" s="2">
+        <f xml:space="preserve"> B4+B6</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6"/>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="D10" s="2">
+        <f>B7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX((B2 - B6 - B5)*1024)</f>
+      <c r="C12" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6)*1024)</f>
         <v>7D000</v>
       </c>
-      <c r="D8" s="2">
-        <f xml:space="preserve"> B2 - B6 - B5</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="F12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX(B6*1024)</f>
+        <v>2000</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="str">
-        <f>DEC2HEX((B2 - B6)*1024)</f>
+      <c r="C17" s="2" t="str">
+        <f>DEC2HEX((B2 - B7)*1024)</f>
         <v>7F000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="F17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX((B2 - B6 - B5 - B3)*1024)</f>
+      <c r="C19" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6 - B3)*1024)</f>
         <v>7C000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="2" t="str">
-        <f xml:space="preserve"> DEC2HEX((B2 - B6 - B5)*1024 - 4)</f>
+      <c r="C20" s="2" t="str">
+        <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6)*1024 - 4)</f>
         <v>7CFFC</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/flash_calculate.xlsx
+++ b/flash_calculate.xlsx
@@ -515,7 +515,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -577,11 +577,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2">
         <f xml:space="preserve"> B2 - B7 - B6</f>
-        <v>500</v>
+        <v>472</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>15</v>
@@ -602,7 +602,7 @@
       <c r="A8" s="6"/>
       <c r="D8" s="2">
         <f xml:space="preserve"> B4+B6</f>
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -624,7 +624,7 @@
       </c>
       <c r="C12" s="2" t="str">
         <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6)*1024)</f>
-        <v>7D000</v>
+        <v>76000</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>21</v>
@@ -646,7 +646,7 @@
       </c>
       <c r="C15" s="2" t="str">
         <f xml:space="preserve"> DEC2HEX(B6*1024)</f>
-        <v>2000</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>17</v>
@@ -673,7 +673,7 @@
       </c>
       <c r="C19" s="2" t="str">
         <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6 - B3)*1024)</f>
-        <v>7C000</v>
+        <v>75000</v>
       </c>
       <c r="F19" s="5"/>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="C20" s="2" t="str">
         <f xml:space="preserve"> DEC2HEX((B2 - B7 - B6)*1024 - 4)</f>
-        <v>7CFFC</v>
+        <v>75FFC</v>
       </c>
       <c r="F20" s="5" t="s">
         <v>14</v>
